--- a/doc/experiment.xlsx
+++ b/doc/experiment.xlsx
@@ -1,25 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="151130" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+  <si>
+    <t>EV quantity</t>
+  </si>
+  <si>
+    <t>Plan combination</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>0,1,3,5</t>
+  </si>
+  <si>
+    <t>0,5,5,5</t>
+  </si>
+  <si>
+    <t>0,3,3,3</t>
+  </si>
+  <si>
+    <t>0,1,1,1</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>foldername</t>
+  </si>
+  <si>
+    <t>50 with alternative plans, other with only original plan</t>
+  </si>
+  <si>
+    <t>optimization goal</t>
+  </si>
+  <si>
+    <t>robustness</t>
+  </si>
+  <si>
+    <t>cost function（in a solo file）</t>
+  </si>
+  <si>
+    <t>EV with plans</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -48,15 +107,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +408,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>